--- a/data/trans_orig/MCS12_SP_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>109478</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>90566</v>
+        <v>92055</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>129469</v>
+        <v>128697</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.187417002417795</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1550406385841299</v>
+        <v>0.1575912050571436</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2216399978862443</v>
+        <v>0.2203183352905153</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>101</v>
@@ -765,19 +765,19 @@
         <v>107709</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>89622</v>
+        <v>89599</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>130109</v>
+        <v>131234</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1167789168297071</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09716852486708161</v>
+        <v>0.09714371125164964</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1410650049766543</v>
+        <v>0.1422846058804753</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>207</v>
@@ -786,19 +786,19 @@
         <v>217187</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>191447</v>
+        <v>190014</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>246442</v>
+        <v>244806</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1441691113575797</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1270826540316913</v>
+        <v>0.1261317121913156</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1635887254111978</v>
+        <v>0.162502822466232</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>146104</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>127657</v>
+        <v>126620</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>167639</v>
+        <v>168990</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2501184893962003</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2185377883455268</v>
+        <v>0.216763003839015</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2869842564911166</v>
+        <v>0.2892965463061771</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>211</v>
@@ -836,19 +836,19 @@
         <v>217385</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>192599</v>
+        <v>191321</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>246032</v>
+        <v>244279</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2356903521864681</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2088168270562197</v>
+        <v>0.2074321250130035</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2667498395194313</v>
+        <v>0.2648494917330553</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>354</v>
@@ -857,19 +857,19 @@
         <v>363489</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>332768</v>
+        <v>333031</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>401145</v>
+        <v>395562</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2412849189355427</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2208920133701103</v>
+        <v>0.2210664085928648</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2662804181888471</v>
+        <v>0.2625748527140501</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>160842</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>140658</v>
+        <v>140900</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>184747</v>
+        <v>183127</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2753482353344545</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2407944579353707</v>
+        <v>0.2412091256518148</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3162708888376619</v>
+        <v>0.3134985719051823</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>270</v>
@@ -907,19 +907,19 @@
         <v>280248</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>255109</v>
+        <v>252981</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>309632</v>
+        <v>310564</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3038470213108232</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2765909925476046</v>
+        <v>0.2742835833926611</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3357056640377701</v>
+        <v>0.336715575964313</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>432</v>
@@ -928,19 +928,19 @@
         <v>441090</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>407327</v>
+        <v>406476</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>476579</v>
+        <v>478045</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2927965053575344</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2703845547244086</v>
+        <v>0.2698191994090657</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3163541111069999</v>
+        <v>0.3173270768756332</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>167716</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>147191</v>
+        <v>145606</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>189419</v>
+        <v>190737</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2871162728515502</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2519780295068306</v>
+        <v>0.2492654503635892</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3242700761365736</v>
+        <v>0.3265263745128892</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>303</v>
@@ -978,19 +978,19 @@
         <v>316991</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>287735</v>
+        <v>288078</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>344730</v>
+        <v>346845</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3436837096730016</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3119638524643073</v>
+        <v>0.3123361897902124</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3737590362642599</v>
+        <v>0.3760519274324243</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>466</v>
@@ -999,19 +999,19 @@
         <v>484707</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>448096</v>
+        <v>448455</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>520089</v>
+        <v>521174</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3217494643493432</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2974471037553915</v>
+        <v>0.2976854259206768</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3452362079435445</v>
+        <v>0.3459564211343524</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>266681</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>238719</v>
+        <v>239021</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>293478</v>
+        <v>294394</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2474094453390585</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.22146842142137</v>
+        <v>0.2217485358319216</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2722695093791743</v>
+        <v>0.2731195109906169</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>189</v>
@@ -1124,19 +1124,19 @@
         <v>194407</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>171433</v>
+        <v>171177</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>220332</v>
+        <v>219174</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1838296975394359</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.162105490851899</v>
+        <v>0.1618636072176866</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2083438379014927</v>
+        <v>0.2072494989582206</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>453</v>
@@ -1145,19 +1145,19 @@
         <v>461088</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>424813</v>
+        <v>420472</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>499503</v>
+        <v>496516</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2159226087627486</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1989353662597362</v>
+        <v>0.1969027053380727</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2339118130247729</v>
+        <v>0.2325130758930401</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>346811</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>314138</v>
+        <v>318306</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>377339</v>
+        <v>378979</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3217488081823208</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2914369128325875</v>
+        <v>0.2953036219658339</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3500707625478551</v>
+        <v>0.3515922530903833</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>307</v>
@@ -1195,19 +1195,19 @@
         <v>317310</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>287110</v>
+        <v>288670</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>348043</v>
+        <v>347461</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3000460338221868</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2714886796163775</v>
+        <v>0.2729640801288805</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3291065323749882</v>
+        <v>0.3285562896791688</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>648</v>
@@ -1216,19 +1216,19 @@
         <v>664121</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>619158</v>
+        <v>623465</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>706856</v>
+        <v>708577</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3110008619702076</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.289945012255395</v>
+        <v>0.2919621294442089</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3310130828799302</v>
+        <v>0.3318192041961404</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>267236</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>239743</v>
+        <v>238817</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>294025</v>
+        <v>293278</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2479240433264957</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2224178269622406</v>
+        <v>0.2215589296013369</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2727777192757435</v>
+        <v>0.2720840303170645</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>272</v>
@@ -1266,19 +1266,19 @@
         <v>278604</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>250823</v>
+        <v>249588</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>306929</v>
+        <v>307675</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2634460620229184</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2371759761013443</v>
+        <v>0.2360081266866958</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2902301522194456</v>
+        <v>0.2909353185199424</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>531</v>
@@ -1287,19 +1287,19 @@
         <v>545840</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>508614</v>
+        <v>506253</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>585103</v>
+        <v>586813</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2556110707675135</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2381784650103742</v>
+        <v>0.2370728914600777</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2739976611127832</v>
+        <v>0.2747980761804664</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>197166</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>172658</v>
+        <v>172197</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>224912</v>
+        <v>224773</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.182917703152125</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1601810141927991</v>
+        <v>0.1597529145761093</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2086587933611</v>
+        <v>0.2085301078167405</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>260</v>
@@ -1337,19 +1337,19 @@
         <v>267217</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>238334</v>
+        <v>238255</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>297977</v>
+        <v>297000</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.252678206615459</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2253670642520898</v>
+        <v>0.2252919956890523</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2817652849424812</v>
+        <v>0.2808414413388486</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>451</v>
@@ -1358,19 +1358,19 @@
         <v>464383</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>428696</v>
+        <v>428100</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>503139</v>
+        <v>504478</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2174654584995303</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2007539427824616</v>
+        <v>0.2004747616954586</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2356146738424615</v>
+        <v>0.2362415417825589</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>269536</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>242196</v>
+        <v>242548</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>297423</v>
+        <v>298686</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2403149181782485</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.215938700240771</v>
+        <v>0.2162530161108864</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2651792742486765</v>
+        <v>0.2663049459322806</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>168</v>
@@ -1483,19 +1483,19 @@
         <v>169070</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>146967</v>
+        <v>145917</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>192765</v>
+        <v>193145</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1701010867677894</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1478626389505223</v>
+        <v>0.1468066727638186</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1939400623188423</v>
+        <v>0.1943221133365381</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>440</v>
@@ -1504,19 +1504,19 @@
         <v>438606</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>402746</v>
+        <v>402935</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>475669</v>
+        <v>478195</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2073264094687977</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1903754377030242</v>
+        <v>0.1904650215553173</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2248457730487856</v>
+        <v>0.2260400249236784</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>457487</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>424052</v>
+        <v>424268</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>490174</v>
+        <v>490532</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4078898998142933</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3780793634867721</v>
+        <v>0.3782727269654262</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4370334919681509</v>
+        <v>0.4373528150125043</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>358</v>
@@ -1554,19 +1554,19 @@
         <v>360195</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>328651</v>
+        <v>330721</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>391037</v>
+        <v>389539</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.362391531431607</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3306549685945279</v>
+        <v>0.3327378865004325</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3934215289938567</v>
+        <v>0.3919137379559756</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>807</v>
@@ -1575,19 +1575,19 @@
         <v>817682</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>772789</v>
+        <v>771854</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>867501</v>
+        <v>862640</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3865134374918787</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3652928722429453</v>
+        <v>0.3648505754521666</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4100623680081537</v>
+        <v>0.4077646209051709</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>250443</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>222993</v>
+        <v>222567</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>277224</v>
+        <v>277852</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2232920724304874</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1988178017380712</v>
+        <v>0.1984381761752547</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2471696688697669</v>
+        <v>0.2477291280240996</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>257</v>
@@ -1625,19 +1625,19 @@
         <v>259620</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>232741</v>
+        <v>234482</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>286848</v>
+        <v>286934</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2612033326026679</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2341597767517852</v>
+        <v>0.2359113387824374</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2885971542832524</v>
+        <v>0.2886833629459434</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>501</v>
@@ -1646,19 +1646,19 @@
         <v>510063</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>469138</v>
+        <v>472069</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>553113</v>
+        <v>547724</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2411038897213743</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2217584846519892</v>
+        <v>0.2231442517177131</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2614529312471104</v>
+        <v>0.2589057462634516</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>144128</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>122528</v>
+        <v>120274</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>170926</v>
+        <v>166914</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1285031095769708</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1092446645673079</v>
+        <v>0.1072348158334956</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1523955406923237</v>
+        <v>0.1488187337353714</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>199</v>
@@ -1696,19 +1696,19 @@
         <v>205054</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>178916</v>
+        <v>179607</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>232035</v>
+        <v>228594</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2063040491979357</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1800064277116086</v>
+        <v>0.1807024661830444</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2334493781349478</v>
+        <v>0.2299881888576553</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>337</v>
@@ -1717,19 +1717,19 @@
         <v>349182</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>314745</v>
+        <v>316954</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>387600</v>
+        <v>386145</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1650562633179493</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1487778832972396</v>
+        <v>0.1498220180379579</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1832159932420261</v>
+        <v>0.1825286156330907</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>117744</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>99579</v>
+        <v>98233</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>137425</v>
+        <v>137056</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2632924525317917</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2226716789136982</v>
+        <v>0.2196624654414473</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3073013687499311</v>
+        <v>0.3064751017199384</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>60</v>
@@ -1842,19 +1842,19 @@
         <v>59928</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>48344</v>
+        <v>47210</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>76483</v>
+        <v>76143</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1756618920122545</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1417065084769742</v>
+        <v>0.1383825643750931</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2241860345807754</v>
+        <v>0.2231904836997542</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>173</v>
@@ -1863,19 +1863,19 @@
         <v>177673</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>155672</v>
+        <v>154886</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>200847</v>
+        <v>200036</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2253707374601459</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1974637720264284</v>
+        <v>0.1964663798286976</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2547663465998338</v>
+        <v>0.2537379449988765</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>128124</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>108717</v>
+        <v>111635</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>146276</v>
+        <v>149446</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2865018420810743</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2431052868335298</v>
+        <v>0.2496314917632494</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3270935743448767</v>
+        <v>0.3341820059380137</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>102</v>
@@ -1913,19 +1913,19 @@
         <v>101974</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>86784</v>
+        <v>84918</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>119554</v>
+        <v>119007</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2989050838965782</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2543818083098959</v>
+        <v>0.248911669303559</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3504365414005417</v>
+        <v>0.3488330470766159</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>229</v>
@@ -1934,19 +1934,19 @@
         <v>230097</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>207383</v>
+        <v>206151</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>259191</v>
+        <v>256064</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2918692869462409</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2630564765649303</v>
+        <v>0.2614942529896868</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.328773055633372</v>
+        <v>0.3248068451370091</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>116463</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>97697</v>
+        <v>99757</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>134770</v>
+        <v>136439</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2604266407746549</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2184646010284886</v>
+        <v>0.2230702587351067</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3013648031246968</v>
+        <v>0.3050965309510891</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>96</v>
@@ -1984,19 +1984,19 @@
         <v>97023</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>82783</v>
+        <v>81289</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>115258</v>
+        <v>114938</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2843922691422212</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.242652913952364</v>
+        <v>0.2382742109804314</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3378446295082504</v>
+        <v>0.3369046044842983</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>207</v>
@@ -2005,19 +2005,19 @@
         <v>213485</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>187050</v>
+        <v>190387</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>237739</v>
+        <v>241356</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2707976543238058</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2372658645605978</v>
+        <v>0.2414983205846643</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3015619471340977</v>
+        <v>0.3061503685563107</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>84869</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>69555</v>
+        <v>69348</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>101903</v>
+        <v>102716</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1897790646124791</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1555336433354884</v>
+        <v>0.1550708960214158</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2278691430582109</v>
+        <v>0.2296867458471403</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>81</v>
@@ -2055,19 +2055,19 @@
         <v>82233</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>66617</v>
+        <v>67072</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>97271</v>
+        <v>98411</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2410407549489461</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1952685258469851</v>
+        <v>0.1966009698172317</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2851200340203303</v>
+        <v>0.2884606097501363</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>166</v>
@@ -2076,19 +2076,19 @@
         <v>167102</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>146342</v>
+        <v>145439</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>192598</v>
+        <v>190427</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2119623212698074</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1856288061760824</v>
+        <v>0.1844837588123356</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2443026326718676</v>
+        <v>0.2415488260089723</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>763439</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>719041</v>
+        <v>717073</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>818450</v>
+        <v>810990</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2362982492561879</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2225560747676863</v>
+        <v>0.2219470722225476</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2533251402001248</v>
+        <v>0.2510160858724674</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>518</v>
@@ -2201,19 +2201,19 @@
         <v>531115</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>487186</v>
+        <v>489000</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>575651</v>
+        <v>576232</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1602170828762708</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1469654979626522</v>
+        <v>0.147512734058169</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1736518669747893</v>
+        <v>0.1738271420300613</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1273</v>
@@ -2222,19 +2222,19 @@
         <v>1294554</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1230041</v>
+        <v>1224608</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1361794</v>
+        <v>1362842</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1977686933602812</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1879130425081549</v>
+        <v>0.1870830049019138</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2080409445588933</v>
+        <v>0.208201049154049</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>1078526</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1024154</v>
+        <v>1027848</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1130278</v>
+        <v>1138336</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3338233254146294</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3169940608752436</v>
+        <v>0.3181374837830688</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3498416336389584</v>
+        <v>0.3523354962780759</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>978</v>
@@ -2272,19 +2272,19 @@
         <v>996864</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>943330</v>
+        <v>941191</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1049798</v>
+        <v>1053626</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3007160387977244</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2845669107696391</v>
+        <v>0.2839213701488865</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.316684150027157</v>
+        <v>0.3178389619737237</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2038</v>
@@ -2293,19 +2293,19 @@
         <v>2075390</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2000695</v>
+        <v>2001690</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2152190</v>
+        <v>2149795</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3170569019886531</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3056456744379356</v>
+        <v>0.3057977612776798</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3287895284868113</v>
+        <v>0.3284237376248222</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>794984</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>747966</v>
+        <v>750667</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>840683</v>
+        <v>850522</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2460618840818913</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2315091513242593</v>
+        <v>0.232344899857551</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2602066142098645</v>
+        <v>0.2632517970256614</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>895</v>
@@ -2343,19 +2343,19 @@
         <v>915496</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>865713</v>
+        <v>863864</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>970940</v>
+        <v>970644</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2761701556707807</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2611527987255801</v>
+        <v>0.2605948056898281</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2928955250297143</v>
+        <v>0.2928063314284737</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1671</v>
@@ -2364,19 +2364,19 @@
         <v>1710479</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1642103</v>
+        <v>1644168</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1788028</v>
+        <v>1784626</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2613095253617373</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2508637164963927</v>
+        <v>0.2511792028120993</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2731566147559341</v>
+        <v>0.27263682587646</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>593880</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>549234</v>
+        <v>554097</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>641719</v>
+        <v>639649</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1838165412472913</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1699979887100632</v>
+        <v>0.1715030218926381</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1986235198447691</v>
+        <v>0.197982965413765</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>843</v>
@@ -2414,19 +2414,19 @@
         <v>871494</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>821325</v>
+        <v>822241</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>921002</v>
+        <v>924697</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.262896722655224</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2477626385714779</v>
+        <v>0.2480389059741139</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2778311836714578</v>
+        <v>0.2789459166215458</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1420</v>
@@ -2435,19 +2435,19 @@
         <v>1465374</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1395850</v>
+        <v>1395985</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1534336</v>
+        <v>1528388</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2238648792893284</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2132437060082016</v>
+        <v>0.2132642553566457</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2344002076900866</v>
+        <v>0.2334914745736373</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>348136</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>318228</v>
+        <v>318230</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>379891</v>
+        <v>381601</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3334843975227151</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3048346080066964</v>
+        <v>0.3048369163747031</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.363902648799669</v>
+        <v>0.3655407415414638</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>236</v>
@@ -2800,19 +2800,19 @@
         <v>256443</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>228970</v>
+        <v>228089</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>286764</v>
+        <v>286196</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2289813407481951</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2044502973722897</v>
+        <v>0.2036637920699435</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2560556404710582</v>
+        <v>0.2555486687449096</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>564</v>
@@ -2821,19 +2821,19 @@
         <v>604579</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>563766</v>
+        <v>559081</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>650587</v>
+        <v>645465</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2793978272137304</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2605369065411351</v>
+        <v>0.2583717883134033</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3006597491011777</v>
+        <v>0.2982930013637153</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>167973</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>146573</v>
+        <v>146034</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>195274</v>
+        <v>195039</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1609038023224204</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1404043851529156</v>
+        <v>0.1398876601119</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1870554576847387</v>
+        <v>0.1868302476034912</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>125</v>
@@ -2871,19 +2871,19 @@
         <v>132927</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>112115</v>
+        <v>111657</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>156441</v>
+        <v>155092</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1186920259354863</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1001094779379644</v>
+        <v>0.09970040016437813</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1396886296960539</v>
+        <v>0.1384842128513756</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>284</v>
@@ -2892,19 +2892,19 @@
         <v>300900</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>269419</v>
+        <v>267567</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>339812</v>
+        <v>335450</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1390566881624477</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1245083814109367</v>
+        <v>0.1236526885155668</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1570393435135692</v>
+        <v>0.1550237074567158</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>205653</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>179099</v>
+        <v>179460</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>232078</v>
+        <v>233179</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1969981649208597</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1715618124183772</v>
+        <v>0.1719074816604711</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2223106805364403</v>
+        <v>0.2233655914147081</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>224</v>
@@ -2942,19 +2942,19 @@
         <v>242313</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>212789</v>
+        <v>212129</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>271941</v>
+        <v>269960</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.216364376182478</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1900025024073562</v>
+        <v>0.1894132266310361</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2428196741652748</v>
+        <v>0.2410515274960458</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>414</v>
@@ -2963,19 +2963,19 @@
         <v>447966</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>409922</v>
+        <v>408071</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>487494</v>
+        <v>486955</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2070213353366323</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1894399601535119</v>
+        <v>0.188584637445918</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2252886426912774</v>
+        <v>0.2250395841096399</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>322173</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>293514</v>
+        <v>292522</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>356005</v>
+        <v>351146</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3086136352340048</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2811608967232921</v>
+        <v>0.2802106128460407</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3410223296534605</v>
+        <v>0.3363677749980998</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>446</v>
@@ -3013,19 +3013,19 @@
         <v>488246</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>454275</v>
+        <v>456175</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>521267</v>
+        <v>524815</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4359622571338406</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4056288764136636</v>
+        <v>0.4073253031083569</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.465447156680413</v>
+        <v>0.468614653793726</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>747</v>
@@ -3034,19 +3034,19 @@
         <v>810419</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>763757</v>
+        <v>766085</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>857157</v>
+        <v>855225</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3745241492871897</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3529600917092717</v>
+        <v>0.3540356832955339</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3961235037560854</v>
+        <v>0.3952305697186593</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>264480</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>234181</v>
+        <v>237058</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>291473</v>
+        <v>291510</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2706861557062124</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2396762304801018</v>
+        <v>0.2426207592751602</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2983120794894629</v>
+        <v>0.2983502378977929</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>203</v>
@@ -3159,19 +3159,19 @@
         <v>220235</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>192060</v>
+        <v>193852</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>248105</v>
+        <v>245604</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2012633442069761</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1755158832862814</v>
+        <v>0.1771532394949564</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2267330177181608</v>
+        <v>0.2244474541563212</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>450</v>
@@ -3180,19 +3180,19 @@
         <v>484715</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>446186</v>
+        <v>449264</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>527529</v>
+        <v>530637</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2340108918937599</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2154100702515132</v>
+        <v>0.2168961064407472</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2546805257301105</v>
+        <v>0.2561810113394143</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>223127</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>199333</v>
+        <v>196484</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>250793</v>
+        <v>248664</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2283630058911184</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2040104270622334</v>
+        <v>0.2010939875375713</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2566779073286481</v>
+        <v>0.2544990318602798</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>176</v>
@@ -3230,19 +3230,19 @@
         <v>187013</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>162148</v>
+        <v>162809</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>212740</v>
+        <v>214037</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1709033761572697</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1481801802078518</v>
+        <v>0.1487844787357267</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1944139818459509</v>
+        <v>0.1955995579905909</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>392</v>
@@ -3251,19 +3251,19 @@
         <v>410140</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>375641</v>
+        <v>374620</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>449270</v>
+        <v>452637</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.198007751853648</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1813521725596326</v>
+        <v>0.1808592528372553</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2168986779638412</v>
+        <v>0.2185244151037751</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>282965</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>256347</v>
+        <v>254535</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>314694</v>
+        <v>315378</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2896051609820224</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2623625263236822</v>
+        <v>0.260507685815123</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3220783926014999</v>
+        <v>0.3227779313963636</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>331</v>
@@ -3301,19 +3301,19 @@
         <v>353157</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>321142</v>
+        <v>323577</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>384145</v>
+        <v>385468</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3227350605861899</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.293477962368648</v>
+        <v>0.2957036614199736</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3510541735369317</v>
+        <v>0.3522627560828587</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>600</v>
@@ -3322,19 +3322,19 @@
         <v>636122</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>594191</v>
+        <v>588737</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>676484</v>
+        <v>678894</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3071073015871501</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2868639155367533</v>
+        <v>0.2842308994764431</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.326593166278809</v>
+        <v>0.3277567235212869</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>206500</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>180753</v>
+        <v>181843</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>232005</v>
+        <v>234459</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2113456774206467</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1849941579180477</v>
+        <v>0.1861095859170682</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2374489931435326</v>
+        <v>0.23996026117552</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>310</v>
@@ -3372,19 +3372,19 @@
         <v>333857</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>306583</v>
+        <v>301149</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>370060</v>
+        <v>365454</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3050982190495643</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2801733176554023</v>
+        <v>0.2752074344564328</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3381822216542671</v>
+        <v>0.3339734332923897</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>502</v>
@@ -3393,19 +3393,19 @@
         <v>540358</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>497620</v>
+        <v>499255</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>578499</v>
+        <v>581363</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2608740546654421</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2402409571581418</v>
+        <v>0.2410307426546551</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2792881258113086</v>
+        <v>0.2806709106711354</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>218709</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>193706</v>
+        <v>191261</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>247967</v>
+        <v>246015</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2470970893293875</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2188483705952026</v>
+        <v>0.2160862978559748</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2801526431200004</v>
+        <v>0.2779469161086376</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>166</v>
@@ -3518,19 +3518,19 @@
         <v>175806</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>152310</v>
+        <v>152000</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>200310</v>
+        <v>199813</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2007386941188345</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.173909797579202</v>
+        <v>0.1735567611218134</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2287176971918925</v>
+        <v>0.2281496606151225</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>369</v>
@@ -3539,19 +3539,19 @@
         <v>394515</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>360172</v>
+        <v>360602</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>432105</v>
+        <v>430781</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2240405637470309</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2045372337625259</v>
+        <v>0.2047813611845743</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2453870855943251</v>
+        <v>0.2446354222906792</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>242153</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>215700</v>
+        <v>215463</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>271249</v>
+        <v>270664</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2735838916333816</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2436966698034883</v>
+        <v>0.2434296186407923</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3064561721057651</v>
+        <v>0.3057956472244998</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>176</v>
@@ -3589,19 +3589,19 @@
         <v>186472</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>162115</v>
+        <v>162002</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>212610</v>
+        <v>213044</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2129166727885927</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1851058532354343</v>
+        <v>0.1849764161471211</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2427616018762862</v>
+        <v>0.2432575191279034</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>400</v>
@@ -3610,19 +3610,19 @@
         <v>428625</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>391046</v>
+        <v>391657</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>462524</v>
+        <v>465459</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2434108177607363</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2220700538324747</v>
+        <v>0.222417159786668</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2626616857111125</v>
+        <v>0.2643286761613139</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>283894</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>255477</v>
+        <v>253523</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>311926</v>
+        <v>311873</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3207421107626547</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2886375405127847</v>
+        <v>0.286429028533163</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3524133231666346</v>
+        <v>0.3523530149644531</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>271</v>
@@ -3660,19 +3660,19 @@
         <v>291175</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>262776</v>
+        <v>263019</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>318097</v>
+        <v>321049</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3324689169189096</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3000423046265632</v>
+        <v>0.3003200428321008</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3632091194501062</v>
+        <v>0.366579440009933</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>542</v>
@@ -3681,19 +3681,19 @@
         <v>575069</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>534785</v>
+        <v>538280</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>616647</v>
+        <v>621679</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3265744827615775</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3036979761190811</v>
+        <v>0.305682916164702</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3501860965600452</v>
+        <v>0.3530439518796168</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>140359</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>119358</v>
+        <v>120006</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>165301</v>
+        <v>164179</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1585769082745762</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1348498197230698</v>
+        <v>0.1355820600765761</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1867560238170928</v>
+        <v>0.1854885137068752</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>208</v>
@@ -3731,19 +3731,19 @@
         <v>222343</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>196710</v>
+        <v>195811</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>248677</v>
+        <v>248922</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2538757161736632</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2246071444923779</v>
+        <v>0.2235810441903526</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2839441009257082</v>
+        <v>0.2842241030403825</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>340</v>
@@ -3752,19 +3752,19 @@
         <v>362702</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>327774</v>
+        <v>328368</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>398403</v>
+        <v>398792</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2059741357306553</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1861388295190682</v>
+        <v>0.1864763955360365</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2262481489562062</v>
+        <v>0.2264693047195707</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>158968</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>139285</v>
+        <v>137551</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>181455</v>
+        <v>181128</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3160243918045129</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2768961578358655</v>
+        <v>0.2734493801810124</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3607298535691081</v>
+        <v>0.3600784292259093</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>102</v>
@@ -3877,19 +3877,19 @@
         <v>114929</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>96019</v>
+        <v>95944</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>134525</v>
+        <v>135615</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2538549835989491</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2120860511341017</v>
+        <v>0.2119207761251343</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2971381595079839</v>
+        <v>0.2995453064658039</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>253</v>
@@ -3898,19 +3898,19 @@
         <v>273897</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>245079</v>
+        <v>243901</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>303634</v>
+        <v>303338</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2865752047852846</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2564238330693487</v>
+        <v>0.2551914031659351</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3176892446006395</v>
+        <v>0.3173793306706092</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>113454</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>94711</v>
+        <v>94800</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>133794</v>
+        <v>134817</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2255450507787024</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1882834449822138</v>
+        <v>0.1884596091088384</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2659798030425001</v>
+        <v>0.2680136446355086</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>70</v>
@@ -3948,19 +3948,19 @@
         <v>75908</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>60462</v>
+        <v>59910</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>94499</v>
+        <v>92763</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1676646330955835</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1335475197598371</v>
+        <v>0.1323295199284472</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2087282861335926</v>
+        <v>0.2048937196572302</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>172</v>
@@ -3969,19 +3969,19 @@
         <v>189362</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>163696</v>
+        <v>162782</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>214554</v>
+        <v>215544</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1981275267214496</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1712739347826536</v>
+        <v>0.1703174560723124</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2244852213236311</v>
+        <v>0.2255217070274085</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>139130</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>119004</v>
+        <v>118055</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>160339</v>
+        <v>163535</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2765870639122723</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2365784306395035</v>
+        <v>0.2346916853365251</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3187501367867758</v>
+        <v>0.3251051884811281</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>138</v>
@@ -4019,19 +4019,19 @@
         <v>149893</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>130705</v>
+        <v>130441</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>172119</v>
+        <v>171689</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3310822046004073</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2887011967468514</v>
+        <v>0.2881175842354954</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3801761015921082</v>
+        <v>0.3792246157988787</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>264</v>
@@ -4040,19 +4040,19 @@
         <v>289022</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>261666</v>
+        <v>258050</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>320691</v>
+        <v>319308</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.302401007394855</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2737783361226889</v>
+        <v>0.269995399229925</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3355359650332112</v>
+        <v>0.3340884389075784</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>91471</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>75346</v>
+        <v>73783</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>111653</v>
+        <v>110852</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1818434935045125</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1497863197730676</v>
+        <v>0.1466784549465453</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2219649675131678</v>
+        <v>0.2203720099941779</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>102</v>
@@ -4090,19 +4090,19 @@
         <v>112006</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>93717</v>
+        <v>95082</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>131813</v>
+        <v>132032</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2473981787050601</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2070003462062373</v>
+        <v>0.2100168817905032</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2911474164199827</v>
+        <v>0.2916314758112191</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>184</v>
@@ -4111,19 +4111,19 @@
         <v>203477</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>178807</v>
+        <v>176544</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>231470</v>
+        <v>228443</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2128962610984107</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1870835478152589</v>
+        <v>0.1847167341740884</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2421846981132788</v>
+        <v>0.239018119649688</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>990293</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>938967</v>
+        <v>933580</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1050051</v>
+        <v>1042720</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2904812585716463</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2754259281233523</v>
+        <v>0.2738458820353842</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3080100032759386</v>
+        <v>0.3058595754440175</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>707</v>
@@ -4236,19 +4236,19 @@
         <v>767413</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>721784</v>
+        <v>717585</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>816064</v>
+        <v>817629</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2166167324575801</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.203737232445107</v>
+        <v>0.2025519589865319</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.230349329944486</v>
+        <v>0.2307911522026641</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1636</v>
@@ -4257,19 +4257,19 @@
         <v>1757706</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1684822</v>
+        <v>1683322</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1832895</v>
+        <v>1845462</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2528393611158515</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2423552794233605</v>
+        <v>0.2421396008590053</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2636550699631072</v>
+        <v>0.2654627338198157</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>746708</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>698726</v>
+        <v>698038</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>797253</v>
+        <v>795921</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2190308104032994</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.20495650802585</v>
+        <v>0.2047546219194307</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2338571343906605</v>
+        <v>0.233466345261242</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>547</v>
@@ -4307,19 +4307,19 @@
         <v>582319</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>538609</v>
+        <v>538785</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>627330</v>
+        <v>626436</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1643704915194305</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1520326198051776</v>
+        <v>0.1520823494511246</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1770757852915607</v>
+        <v>0.176823397058426</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1248</v>
@@ -4328,19 +4328,19 @@
         <v>1329027</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1269702</v>
+        <v>1262713</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1402610</v>
+        <v>1398908</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1911755160343856</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1826418912546439</v>
+        <v>0.1816365869637569</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.201760132948198</v>
+        <v>0.2012277159582087</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>911642</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>861293</v>
+        <v>855891</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>966057</v>
+        <v>960884</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.267410662573585</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2526420273593896</v>
+        <v>0.2510574352628642</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2833723182595742</v>
+        <v>0.2818549585635836</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>964</v>
@@ -4378,19 +4378,19 @@
         <v>1036537</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>980000</v>
+        <v>978537</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1090629</v>
+        <v>1091693</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2925820816625183</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2766234630002799</v>
+        <v>0.2762103865540556</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3078504363276369</v>
+        <v>0.3081508928054737</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1820</v>
@@ -4399,19 +4399,19 @@
         <v>1948179</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1873304</v>
+        <v>1867474</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2027685</v>
+        <v>2026172</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2802382000399363</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2694678166378282</v>
+        <v>0.2686291529437047</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2916748681779694</v>
+        <v>0.2914571727057317</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>760503</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>710320</v>
+        <v>715438</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>811761</v>
+        <v>811219</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2230772684514692</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2083571909007711</v>
+        <v>0.2098583610240265</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2381127827325504</v>
+        <v>0.2379537839703662</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1066</v>
@@ -4449,19 +4449,19 @@
         <v>1156453</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1094514</v>
+        <v>1097390</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1208642</v>
+        <v>1210753</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3264306943604711</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3089471851754847</v>
+        <v>0.3097590642555114</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3411619183193731</v>
+        <v>0.3417578965326705</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1773</v>
@@ -4470,19 +4470,19 @@
         <v>1916956</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1839151</v>
+        <v>1841753</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2000755</v>
+        <v>1993524</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2757469228098267</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2645549207667148</v>
+        <v>0.2649292618833161</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2878010915943145</v>
+        <v>0.2867609420143968</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>249671</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>223443</v>
+        <v>223621</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>280528</v>
+        <v>277843</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2213401705735943</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1980884356455838</v>
+        <v>0.1982463364836334</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2486961145411609</v>
+        <v>0.246315653563395</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>236</v>
@@ -4835,19 +4835,19 @@
         <v>256104</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>227802</v>
+        <v>227840</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>285873</v>
+        <v>289814</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2033279703542891</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1808582654169787</v>
+        <v>0.1808881155521894</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2269627435456077</v>
+        <v>0.2300916253800584</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>466</v>
@@ -4856,19 +4856,19 @@
         <v>505775</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>463281</v>
+        <v>467758</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>546512</v>
+        <v>547636</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2118378000446013</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1940398292345334</v>
+        <v>0.1959147469628003</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2288999293505934</v>
+        <v>0.2293706868313685</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>183921</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>160966</v>
+        <v>161717</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>211948</v>
+        <v>211170</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1630507840146211</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1427003888734418</v>
+        <v>0.1433664596848445</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1878978591637939</v>
+        <v>0.18720755433524</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>172</v>
@@ -4906,19 +4906,19 @@
         <v>179707</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>156493</v>
+        <v>154762</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>207965</v>
+        <v>205047</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.142674077504123</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1242443513090149</v>
+        <v>0.1228701268559113</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1651088910666323</v>
+        <v>0.1627924933584569</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>346</v>
@@ -4927,19 +4927,19 @@
         <v>363628</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>328088</v>
+        <v>331405</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>399760</v>
+        <v>402368</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1523010136886301</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1374155117740625</v>
+        <v>0.1388049751130354</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1674348389583428</v>
+        <v>0.1685268149309781</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>354347</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>322493</v>
+        <v>324149</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>387316</v>
+        <v>386863</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3141380651314321</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2858987764690381</v>
+        <v>0.287367094892448</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3433663088236377</v>
+        <v>0.342964595096492</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>334</v>
@@ -4977,19 +4977,19 @@
         <v>348075</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>318887</v>
+        <v>317849</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>382075</v>
+        <v>384019</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2763460265397289</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2531731874137712</v>
+        <v>0.2523493880673274</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3033396473481247</v>
+        <v>0.3048831656795591</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>672</v>
@@ -4998,19 +4998,19 @@
         <v>702421</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>656762</v>
+        <v>656693</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>746162</v>
+        <v>749944</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2942008031994071</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2750768252951461</v>
+        <v>0.2750480728443735</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.312520967231194</v>
+        <v>0.3141051576008974</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>340058</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>308431</v>
+        <v>310802</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>373797</v>
+        <v>370754</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3014709802803525</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2734328520293036</v>
+        <v>0.2755346225422486</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3313809386212671</v>
+        <v>0.3286832509787788</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>446</v>
@@ -5048,19 +5048,19 @@
         <v>475676</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>438596</v>
+        <v>439896</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>509372</v>
+        <v>513588</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3776519256018591</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3482130780286777</v>
+        <v>0.3492457334028592</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4044044501131862</v>
+        <v>0.4077512577607771</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>770</v>
@@ -5069,19 +5069,19 @@
         <v>815734</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>772304</v>
+        <v>770502</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>867847</v>
+        <v>863462</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3416603830673616</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3234702478560967</v>
+        <v>0.3227154528067048</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3634871465950481</v>
+        <v>0.3616505689297048</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>257466</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>232641</v>
+        <v>229667</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>285230</v>
+        <v>285441</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2832950484850535</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2559797390076594</v>
+        <v>0.252707596042017</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.313844938182613</v>
+        <v>0.3140769492471252</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>245</v>
@@ -5194,19 +5194,19 @@
         <v>262963</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>236310</v>
+        <v>233097</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>293130</v>
+        <v>291345</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2612715585176061</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.234789760540426</v>
+        <v>0.231597036479931</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2912437064971964</v>
+        <v>0.2894709405685564</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>490</v>
@@ -5215,19 +5215,19 @@
         <v>520429</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>485107</v>
+        <v>480950</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>560493</v>
+        <v>559642</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2717218757580779</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2532798285530212</v>
+        <v>0.2511096905862343</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2926397818075056</v>
+        <v>0.2921956581589367</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>212000</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>185808</v>
+        <v>185026</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>236549</v>
+        <v>236776</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.23326776618593</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2044486805324612</v>
+        <v>0.2035878404351974</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2602799051898862</v>
+        <v>0.2605296831372091</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>216</v>
@@ -5265,19 +5265,19 @@
         <v>227044</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>201088</v>
+        <v>201356</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>253132</v>
+        <v>253872</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2255837747782371</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1997946937366576</v>
+        <v>0.2000602768988439</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2515035595401071</v>
+        <v>0.2522391795393467</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>421</v>
@@ -5286,19 +5286,19 @@
         <v>439044</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>405060</v>
+        <v>405078</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>478465</v>
+        <v>478483</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2292298884505997</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2114864038153824</v>
+        <v>0.2114957538275267</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2498119222530165</v>
+        <v>0.24982131882942</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>288084</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>259634</v>
+        <v>262180</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>315102</v>
+        <v>316990</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3169855111457646</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2856810524645896</v>
+        <v>0.2884823131627797</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3467138704445882</v>
+        <v>0.3487905378818593</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>279</v>
@@ -5336,19 +5336,19 @@
         <v>289579</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>262312</v>
+        <v>262733</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>319679</v>
+        <v>321850</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.287716211679546</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2606240515885007</v>
+        <v>0.2610425204876051</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3176222490088296</v>
+        <v>0.3197795187133954</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>560</v>
@@ -5357,19 +5357,19 @@
         <v>577664</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>539278</v>
+        <v>538847</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>619349</v>
+        <v>621478</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3016047218693689</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2815629888112235</v>
+        <v>0.2813383841316306</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3233693927754501</v>
+        <v>0.3244807224936244</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>151275</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>129128</v>
+        <v>127769</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>175188</v>
+        <v>175924</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1664516741832519</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1420819276198958</v>
+        <v>0.1405870798078376</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1927626826520585</v>
+        <v>0.1935726042607014</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>211</v>
@@ -5407,19 +5407,19 @@
         <v>226888</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>198746</v>
+        <v>200298</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>253953</v>
+        <v>256003</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2254284550246108</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1974674450898012</v>
+        <v>0.1990089846895824</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2523190914676842</v>
+        <v>0.2543564367351811</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>361</v>
@@ -5428,19 +5428,19 @@
         <v>378164</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>346931</v>
+        <v>342553</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>417365</v>
+        <v>413565</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1974435139219536</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1811365907790979</v>
+        <v>0.1788506750913312</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2179112615028582</v>
+        <v>0.2159267927143362</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>242587</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>217781</v>
+        <v>215963</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>269137</v>
+        <v>268625</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2944883501249441</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2643745955935752</v>
+        <v>0.2621674941587305</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3267180993704183</v>
+        <v>0.3260966513778916</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>194</v>
@@ -5553,19 +5553,19 @@
         <v>201811</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>180078</v>
+        <v>178436</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>230266</v>
+        <v>225969</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2617317078061532</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.233545808585697</v>
+        <v>0.2314173381742879</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2986358408622211</v>
+        <v>0.2930630593677906</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>428</v>
@@ -5574,19 +5574,19 @@
         <v>444398</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>407315</v>
+        <v>408347</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>482377</v>
+        <v>483662</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2786512489068231</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2553992588922027</v>
+        <v>0.2560463285428796</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3024651281676989</v>
+        <v>0.3032709737507906</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>264338</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>237997</v>
+        <v>240559</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>292346</v>
+        <v>291518</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3208927741039203</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2889159153551404</v>
+        <v>0.2920264671198788</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.354892443411323</v>
+        <v>0.3538873623288983</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>184</v>
@@ -5624,19 +5624,19 @@
         <v>190754</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>169098</v>
+        <v>168481</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>217544</v>
+        <v>216979</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2473918057037552</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2193065187995234</v>
+        <v>0.2185053914572643</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2821364122526434</v>
+        <v>0.281403445239499</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>438</v>
@@ -5645,19 +5645,19 @@
         <v>455092</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>415675</v>
+        <v>418026</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>490028</v>
+        <v>490756</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2853567058813366</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2606407263990547</v>
+        <v>0.2621153184977881</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3072629045472079</v>
+        <v>0.3077192100876315</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>226099</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>201145</v>
+        <v>200951</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>253789</v>
+        <v>255034</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2744716670020692</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2441795646243841</v>
+        <v>0.243944426903576</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3080859221684035</v>
+        <v>0.3095982771549673</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>226</v>
@@ -5695,19 +5695,19 @@
         <v>237783</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>213561</v>
+        <v>211682</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>263403</v>
+        <v>264532</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3083849902629066</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.276970724249348</v>
+        <v>0.2745335167492221</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3416114694868596</v>
+        <v>0.3430760009988588</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>440</v>
@@ -5716,19 +5716,19 @@
         <v>463882</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>427433</v>
+        <v>428529</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>501240</v>
+        <v>500440</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2908679974897223</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2680139013347497</v>
+        <v>0.2687009346553247</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3142932026993671</v>
+        <v>0.3137912973706218</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>90735</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>72998</v>
+        <v>72111</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>110306</v>
+        <v>112319</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1101472087690664</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08861542531194395</v>
+        <v>0.08753950648955286</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1339053921942085</v>
+        <v>0.1363492472093027</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>124</v>
@@ -5766,19 +5766,19 @@
         <v>140712</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>119121</v>
+        <v>119035</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>162868</v>
+        <v>166198</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1824914962271851</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1544896599670616</v>
+        <v>0.1543787614454052</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2112260389263867</v>
+        <v>0.2155456721541594</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>209</v>
@@ -5787,19 +5787,19 @@
         <v>231446</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>202111</v>
+        <v>205826</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>260194</v>
+        <v>262416</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.145124047722118</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1267295080154464</v>
+        <v>0.1290592812689783</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1631495856379628</v>
+        <v>0.1645427477617082</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>201635</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>179603</v>
+        <v>180098</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>225574</v>
+        <v>225182</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3979376838348589</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3544552248043261</v>
+        <v>0.3554327282828836</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4451822362051724</v>
+        <v>0.4444074939933911</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>137</v>
@@ -5912,19 +5912,19 @@
         <v>148464</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>127932</v>
+        <v>124986</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>170397</v>
+        <v>168070</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3031744473598896</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.261246163465583</v>
+        <v>0.2552305085814312</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3479629706335722</v>
+        <v>0.3432106537524571</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>326</v>
@@ -5933,19 +5933,19 @@
         <v>350099</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>318380</v>
+        <v>319947</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>380988</v>
+        <v>379606</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3513646238679667</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.319531358345728</v>
+        <v>0.3211032140062046</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3823648136693881</v>
+        <v>0.3809784378656474</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>133207</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>115972</v>
+        <v>113522</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>156572</v>
+        <v>153035</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.262889967131186</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2288769213925773</v>
+        <v>0.2240408320845067</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.309003398729538</v>
+        <v>0.3020232008501953</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>118</v>
@@ -5983,19 +5983,19 @@
         <v>126058</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>106171</v>
+        <v>106398</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>146194</v>
+        <v>146852</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2574204088816957</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2168087391368297</v>
+        <v>0.2172724797532994</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2985391645210607</v>
+        <v>0.2998833251735975</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>242</v>
@@ -6004,19 +6004,19 @@
         <v>259265</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>234579</v>
+        <v>232546</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>289942</v>
+        <v>287453</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2602018564901654</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.235426896912895</v>
+        <v>0.2333864351498595</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2909905556377784</v>
+        <v>0.2884919401703702</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>119234</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>99963</v>
+        <v>99047</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>137975</v>
+        <v>138111</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2353138575913966</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1972829080426779</v>
+        <v>0.1954746785037531</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2723010599075309</v>
+        <v>0.272568992621732</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>106</v>
@@ -6054,19 +6054,19 @@
         <v>114243</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>96627</v>
+        <v>93775</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>135548</v>
+        <v>134045</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2332935408047657</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1973188269013852</v>
+        <v>0.1914964079868499</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2767990361147882</v>
+        <v>0.2737303037616532</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>216</v>
@@ -6075,19 +6075,19 @@
         <v>233477</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>200767</v>
+        <v>210109</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>259201</v>
+        <v>262620</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.234320937358235</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2014925287517038</v>
+        <v>0.2108683692586884</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2601379449953666</v>
+        <v>0.2635698263989132</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>52625</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>39300</v>
+        <v>40170</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>68494</v>
+        <v>69385</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1038584914425584</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0775610749686526</v>
+        <v>0.07927699226074084</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1351769375463085</v>
+        <v>0.1369351028623698</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>94</v>
@@ -6125,19 +6125,19 @@
         <v>100932</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>82234</v>
+        <v>83717</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>121192</v>
+        <v>121552</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2061116029536489</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1679280938379028</v>
+        <v>0.1709558883515653</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2474824721255685</v>
+        <v>0.2482176804652499</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>142</v>
@@ -6146,19 +6146,19 @@
         <v>153557</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>131295</v>
+        <v>131651</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>177822</v>
+        <v>177176</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1541125822836329</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1317691790444831</v>
+        <v>0.1321268049399373</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1784647154269091</v>
+        <v>0.1778163596364701</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>951360</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>894049</v>
+        <v>899223</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1000590</v>
+        <v>1002402</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2825303913159561</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2655106763229323</v>
+        <v>0.2670471377527533</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2971506439553158</v>
+        <v>0.2976887532948316</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>812</v>
@@ -6271,19 +6271,19 @@
         <v>869342</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>809244</v>
+        <v>822829</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>917379</v>
+        <v>928855</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2464963975206537</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2294560484529869</v>
+        <v>0.2333079683940423</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2601169861548108</v>
+        <v>0.2633709495135287</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1710</v>
@@ -6292,19 +6292,19 @@
         <v>1820701</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1748327</v>
+        <v>1744623</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1902460</v>
+        <v>1893807</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2640965301939268</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2535984430095758</v>
+        <v>0.2530612110602253</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2759558138378063</v>
+        <v>0.274700664627841</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>793465</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>747759</v>
+        <v>746327</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>843437</v>
+        <v>852785</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.235639696124643</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2220661008209299</v>
+        <v>0.2216408603222103</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2504800442435947</v>
+        <v>0.2532562289411774</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>690</v>
@@ -6342,19 +6342,19 @@
         <v>723563</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>674962</v>
+        <v>675145</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>775514</v>
+        <v>770241</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2051617603185888</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1913813224013039</v>
+        <v>0.1914331797121121</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2198923263348698</v>
+        <v>0.2183971180190169</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1447</v>
@@ -6363,19 +6363,19 @@
         <v>1517028</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1456869</v>
+        <v>1451023</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1594947</v>
+        <v>1584646</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2200481400199691</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2113219221550114</v>
+        <v>0.2104739724852512</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2313503699502108</v>
+        <v>0.2298561769981521</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>987763</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>938047</v>
+        <v>933286</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1048969</v>
+        <v>1041687</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2933414617052191</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.278576789375007</v>
+        <v>0.2771628998042956</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3115179791499725</v>
+        <v>0.3093554725343201</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>945</v>
@@ -6413,19 +6413,19 @@
         <v>989680</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>935856</v>
+        <v>935159</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1046267</v>
+        <v>1046469</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2806176242660967</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2653562577680595</v>
+        <v>0.2651585681365472</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2966624245623206</v>
+        <v>0.2967197240712592</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1888</v>
@@ -6434,19 +6434,19 @@
         <v>1977444</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1906616</v>
+        <v>1906199</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2054467</v>
+        <v>2056362</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.286832345518308</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2765586396731343</v>
+        <v>0.2764982044893768</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2980046847616822</v>
+        <v>0.2982796202022242</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>634694</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>595428</v>
+        <v>588663</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>681833</v>
+        <v>682730</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1884884508541817</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1768275174578008</v>
+        <v>0.1748185285944298</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2024875982169436</v>
+        <v>0.2027540309717755</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>875</v>
@@ -6484,19 +6484,19 @@
         <v>944208</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>894235</v>
+        <v>893153</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1005207</v>
+        <v>995580</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2677242178946608</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2535549226796466</v>
+        <v>0.2532481306784222</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2850201990067083</v>
+        <v>0.2822905629460234</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1482</v>
@@ -6505,19 +6505,19 @@
         <v>1578902</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1498765</v>
+        <v>1511629</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1644008</v>
+        <v>1652516</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2290229842677961</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2173990044182928</v>
+        <v>0.2192648829239673</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.238466837566091</v>
+        <v>0.2397009717491853</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>135039</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>114799</v>
+        <v>112012</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>162204</v>
+        <v>158627</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2729947635359995</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2320776275322161</v>
+        <v>0.2264422383053763</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3279107688485141</v>
+        <v>0.3206785761414906</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>155</v>
@@ -6870,19 +6870,19 @@
         <v>115354</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>100416</v>
+        <v>98643</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>135800</v>
+        <v>134724</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1863529598466629</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1622205915410207</v>
+        <v>0.1593578921316101</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2193839069056254</v>
+        <v>0.2176459882401712</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>265</v>
@@ -6891,19 +6891,19 @@
         <v>250393</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>222713</v>
+        <v>219863</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>283998</v>
+        <v>280506</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2248368351116723</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1999820856375268</v>
+        <v>0.1974233654246194</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2550118578330976</v>
+        <v>0.2518763523231802</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>107909</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>86376</v>
+        <v>88318</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>130462</v>
+        <v>131141</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2181482648253589</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1746163214139093</v>
+        <v>0.1785437482681945</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2637405220239813</v>
+        <v>0.2651137359436961</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>143</v>
@@ -6941,19 +6941,19 @@
         <v>107842</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>91976</v>
+        <v>89655</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>127142</v>
+        <v>126012</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.174217325804179</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.148587244642703</v>
+        <v>0.1448375569469871</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2053968427077007</v>
+        <v>0.2035711609942015</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>234</v>
@@ -6962,19 +6962,19 @@
         <v>215750</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>188970</v>
+        <v>190189</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>242289</v>
+        <v>248098</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1937302249541986</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1696834721493403</v>
+        <v>0.1707776131782801</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.217560240279007</v>
+        <v>0.2227762944717636</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>97577</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>78023</v>
+        <v>80126</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>118101</v>
+        <v>117373</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.197261887098887</v>
+        <v>0.1972618870988869</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1577303600080899</v>
+        <v>0.1619823202212083</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2387530292548105</v>
+        <v>0.2372811002448321</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>203</v>
@@ -7012,19 +7012,19 @@
         <v>155162</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>133680</v>
+        <v>133759</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>175873</v>
+        <v>175576</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2506625042107563</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2159589574574028</v>
+        <v>0.2160875200110785</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2841209236877226</v>
+        <v>0.2836426135467743</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>295</v>
@@ -7033,19 +7033,19 @@
         <v>252739</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>226367</v>
+        <v>225999</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>282258</v>
+        <v>281256</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2269434378882643</v>
+        <v>0.2269434378882642</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2032629753548959</v>
+        <v>0.2029324968426907</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2534494402078898</v>
+        <v>0.2525499048837744</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>154133</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>131437</v>
+        <v>134087</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>176865</v>
+        <v>176360</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3115950845397547</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2657132515151236</v>
+        <v>0.2710704645955987</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3575490467303212</v>
+        <v>0.3565283945113976</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>352</v>
@@ -7083,19 +7083,19 @@
         <v>240649</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>218595</v>
+        <v>220917</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>261509</v>
+        <v>264656</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3887672101384019</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3531380133590282</v>
+        <v>0.3568898982002464</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4224667824021393</v>
+        <v>0.4275501700023668</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>510</v>
@@ -7104,19 +7104,19 @@
         <v>394782</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>362932</v>
+        <v>361213</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>427313</v>
+        <v>424382</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3544895020458648</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3258901537396154</v>
+        <v>0.3243461089608583</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3837000879693501</v>
+        <v>0.3810682237592166</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>296854</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>265376</v>
+        <v>257614</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>331064</v>
+        <v>329046</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3107719424189613</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2778181190005399</v>
+        <v>0.2696922555347425</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3465861540816318</v>
+        <v>0.3444733597645039</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>370</v>
@@ -7229,19 +7229,19 @@
         <v>282796</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>258488</v>
+        <v>257898</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>309185</v>
+        <v>311782</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.2545806048490204</v>
+        <v>0.2545806048490205</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2326981565764173</v>
+        <v>0.2321665562012436</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2783367093859239</v>
+        <v>0.2806751807795231</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>614</v>
@@ -7250,19 +7250,19 @@
         <v>579649</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>536264</v>
+        <v>534308</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>624374</v>
+        <v>622354</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.2805600851705404</v>
+        <v>0.2805600851705405</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2595607288821237</v>
+        <v>0.2586143756035451</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3022076958437594</v>
+        <v>0.3012297690688672</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>276797</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>246999</v>
+        <v>246937</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>310329</v>
+        <v>309382</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.289775216873373</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2585801106409091</v>
+        <v>0.2585144862931804</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3248789535903794</v>
+        <v>0.3238877484078245</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>391</v>
@@ -7300,19 +7300,19 @@
         <v>283611</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>259555</v>
+        <v>257526</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>310689</v>
+        <v>307672</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2553148715537931</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2336583240102989</v>
+        <v>0.2318323414794343</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2796912302743331</v>
+        <v>0.2769750538249702</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>647</v>
@@ -7321,19 +7321,19 @@
         <v>560408</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>521220</v>
+        <v>521195</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>603115</v>
+        <v>608167</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2712472536934509</v>
+        <v>0.271247253693451</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2522793604184208</v>
+        <v>0.2522674755436865</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2919180928302526</v>
+        <v>0.2943630307668268</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>212051</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>184812</v>
+        <v>185404</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>239108</v>
+        <v>238893</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2219934696890414</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1934767608024904</v>
+        <v>0.1940965158366963</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2503183940535153</v>
+        <v>0.2500937276897756</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>415</v>
@@ -7371,19 +7371,19 @@
         <v>272299</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>250170</v>
+        <v>248848</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>295398</v>
+        <v>297476</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2451309980793492</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2252104278244052</v>
+        <v>0.2240198826085798</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2659256682398557</v>
+        <v>0.267796591462741</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>629</v>
@@ -7392,19 +7392,19 @@
         <v>484350</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>447210</v>
+        <v>446097</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>524700</v>
+        <v>522036</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.2344336025465159</v>
+        <v>0.234433602546516</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2164574281457546</v>
+        <v>0.2159184142282269</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2539635418641841</v>
+        <v>0.2526744529876094</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>169512</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>146394</v>
+        <v>145776</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>199206</v>
+        <v>196513</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1774593710186244</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1532580886578768</v>
+        <v>0.1526111346644824</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2085457924668821</v>
+        <v>0.2057269840814527</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>423</v>
@@ -7442,19 +7442,19 @@
         <v>272124</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>247817</v>
+        <v>249339</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>296101</v>
+        <v>296524</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2449735255178372</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2230918985581722</v>
+        <v>0.2244617596248313</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2665584743470965</v>
+        <v>0.2669392596335281</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>614</v>
@@ -7463,19 +7463,19 @@
         <v>441635</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>407202</v>
+        <v>407581</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>478070</v>
+        <v>476607</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2137590585894927</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1970925600844484</v>
+        <v>0.1972763156708196</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.231394244722581</v>
+        <v>0.2306860794825137</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>372859</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>339283</v>
+        <v>340973</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>405590</v>
+        <v>405878</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3568218336641444</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3246899841197248</v>
+        <v>0.3263070079155984</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3881452991701509</v>
+        <v>0.3884206531415116</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>405</v>
@@ -7588,19 +7588,19 @@
         <v>294403</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>270154</v>
+        <v>270238</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>320427</v>
+        <v>319840</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2815871387548806</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2583932758678932</v>
+        <v>0.2584739357041684</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3064778659049786</v>
+        <v>0.3059164827003502</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>750</v>
@@ -7609,19 +7609,19 @@
         <v>667262</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>622064</v>
+        <v>624720</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>712401</v>
+        <v>710044</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3191942393386639</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2975728454819452</v>
+        <v>0.2988436196460965</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3407871031799442</v>
+        <v>0.3396593248319817</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>294173</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>264110</v>
+        <v>262791</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>327573</v>
+        <v>327552</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2815198808543762</v>
+        <v>0.2815198808543763</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2527502734564528</v>
+        <v>0.2514881187459542</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3134836849649436</v>
+        <v>0.3134632469761017</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>432</v>
@@ -7659,19 +7659,19 @@
         <v>304514</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>276371</v>
+        <v>278460</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>328491</v>
+        <v>330536</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2912573185227659</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2643397955430721</v>
+        <v>0.266337738418862</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.314190939504847</v>
+        <v>0.3161464399559834</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>711</v>
@@ -7680,19 +7680,19 @@
         <v>598686</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>556002</v>
+        <v>557253</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>641209</v>
+        <v>638888</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2863899259153379</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2659710785235738</v>
+        <v>0.2665695571314786</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3067310416235809</v>
+        <v>0.3056208109596154</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>236236</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>209769</v>
+        <v>207869</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>266135</v>
+        <v>264569</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2260752061054097</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2007460424291159</v>
+        <v>0.1989280030275691</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2546880135674393</v>
+        <v>0.2531891872221751</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>320</v>
@@ -7730,19 +7730,19 @@
         <v>211399</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>189699</v>
+        <v>188284</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>235086</v>
+        <v>233462</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2021962130959308</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1814409243905452</v>
+        <v>0.1800877994640434</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2248516487368672</v>
+        <v>0.2232991677148781</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>561</v>
@@ -7751,19 +7751,19 @@
         <v>447635</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>412742</v>
+        <v>411364</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>485463</v>
+        <v>487242</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2141324573118472</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.197440702348308</v>
+        <v>0.1967814462466549</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.232228088583098</v>
+        <v>0.2330789893314673</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>141677</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>120711</v>
+        <v>121387</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>166667</v>
+        <v>164976</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1355830793760697</v>
+        <v>0.1355830793760696</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1155185315168238</v>
+        <v>0.1161663158403539</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1594978968430313</v>
+        <v>0.1578804831091574</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>355</v>
@@ -7801,19 +7801,19 @@
         <v>235198</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>214108</v>
+        <v>212844</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>259583</v>
+        <v>260500</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2249593296264227</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2047872608134358</v>
+        <v>0.2035785388097853</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.248283109071171</v>
+        <v>0.2491595718723608</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>517</v>
@@ -7822,19 +7822,19 @@
         <v>376875</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>343195</v>
+        <v>345503</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>412476</v>
+        <v>411007</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.180283377434151</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1641722718685517</v>
+        <v>0.1652762833008588</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1973135894211455</v>
+        <v>0.1966110066169109</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>311128</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>281411</v>
+        <v>277344</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>347197</v>
+        <v>342694</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3207866543050749</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2901473737044085</v>
+        <v>0.2859544852593571</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3579756715671135</v>
+        <v>0.3533328984430141</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>370</v>
@@ -7947,19 +7947,19 @@
         <v>281442</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>256155</v>
+        <v>255336</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>308005</v>
+        <v>307589</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3115653092470136</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2835718312303759</v>
+        <v>0.2826652931246776</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3409711693337735</v>
+        <v>0.3405109931277092</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>661</v>
@@ -7968,19 +7968,19 @@
         <v>592570</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>550586</v>
+        <v>547935</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>636333</v>
+        <v>633935</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3163398423436191</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.293926846206416</v>
+        <v>0.2925116207075551</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3397025304419982</v>
+        <v>0.3384221078021148</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>219386</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>192245</v>
+        <v>190056</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>249220</v>
+        <v>251792</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2261963079906045</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1982133148451788</v>
+        <v>0.1959558850960103</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2569568228157167</v>
+        <v>0.2596092944809712</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>202</v>
@@ -8018,19 +8018,19 @@
         <v>137634</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>117092</v>
+        <v>120153</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>155857</v>
+        <v>157642</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1523647504796668</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1296239968681852</v>
+        <v>0.1330128857973624</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1725383173056756</v>
+        <v>0.1745145848497822</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>406</v>
@@ -8039,19 +8039,19 @@
         <v>357019</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>323322</v>
+        <v>322462</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>391370</v>
+        <v>394760</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1905924941212237</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1726036071624854</v>
+        <v>0.1721443275541426</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2089302867444466</v>
+        <v>0.2107399816641878</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>225712</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>198593</v>
+        <v>196609</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>255679</v>
+        <v>256345</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2327191773693936</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2047578651698972</v>
+        <v>0.2027123751225607</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2636169886295544</v>
+        <v>0.2643031976326423</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>305</v>
@@ -8089,19 +8089,19 @@
         <v>209866</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>190773</v>
+        <v>186061</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>235194</v>
+        <v>233952</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2323281336165234</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2111916199779624</v>
+        <v>0.2059757065447477</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.260366668329743</v>
+        <v>0.2589923942113553</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>520</v>
@@ -8110,19 +8110,19 @@
         <v>435578</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>397853</v>
+        <v>399161</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>471287</v>
+        <v>478023</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2325306042245034</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2123912715598411</v>
+        <v>0.2130896211478561</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2515936899531306</v>
+        <v>0.2551898528735371</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>213665</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>187883</v>
+        <v>188364</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>243520</v>
+        <v>242030</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2202978603349271</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1937158648326754</v>
+        <v>0.1942121874429764</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2510800173634739</v>
+        <v>0.2495436097010931</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>436</v>
@@ -8160,19 +8160,19 @@
         <v>274375</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>253230</v>
+        <v>249491</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>301493</v>
+        <v>299198</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3037418066567962</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2803338045798383</v>
+        <v>0.2761945601911809</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3337621026031748</v>
+        <v>0.3312216453473267</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>667</v>
@@ -8181,19 +8181,19 @@
         <v>488040</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>451796</v>
+        <v>453918</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>526239</v>
+        <v>524726</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2605370593106538</v>
+        <v>0.2605370593106539</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2411887428992992</v>
+        <v>0.242321418398402</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2809294840340434</v>
+        <v>0.2801217691727947</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>1115880</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1053125</v>
+        <v>1054702</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1179705</v>
+        <v>1176136</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3220704309378867</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3039577820603604</v>
+        <v>0.3044130430469388</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3404921359074578</v>
+        <v>0.3394619345160471</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1300</v>
@@ -8306,19 +8306,19 @@
         <v>973995</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>924438</v>
+        <v>927198</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1025221</v>
+        <v>1025305</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2647684484376355</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.251296908534625</v>
+        <v>0.2520471687443368</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2786936008839223</v>
+        <v>0.2787163203305382</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2290</v>
@@ -8327,19 +8327,19 @@
         <v>2089874</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2011072</v>
+        <v>2021145</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2182549</v>
+        <v>2178191</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2925612792778365</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2815297630112543</v>
+        <v>0.2829398931003331</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3055348025842719</v>
+        <v>0.3049246949347741</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>898264</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>840249</v>
+        <v>840137</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>958213</v>
+        <v>955977</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2592612923804365</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2425164884259675</v>
+        <v>0.2424842583531897</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.276563979609338</v>
+        <v>0.2759184921090199</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1168</v>
@@ -8377,19 +8377,19 @@
         <v>833600</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>787655</v>
+        <v>789279</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>876380</v>
+        <v>881702</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2266038930875969</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.21411419482368</v>
+        <v>0.2145556424445647</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2382330969328977</v>
+        <v>0.2396796957056641</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1998</v>
@@ -8398,19 +8398,19 @@
         <v>1731864</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1657346</v>
+        <v>1664922</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1811119</v>
+        <v>1809173</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2424435121482954</v>
+        <v>0.2424435121482955</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2320116593678265</v>
+        <v>0.233072265392348</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2535383434000381</v>
+        <v>0.2532659644123789</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>771577</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>717499</v>
+        <v>721247</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>832178</v>
+        <v>823564</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.222696055198041</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2070879062945121</v>
+        <v>0.2081697041507716</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2401871167637027</v>
+        <v>0.237700765019123</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1243</v>
@@ -8448,19 +8448,19 @@
         <v>848725</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>804466</v>
+        <v>809956</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>896202</v>
+        <v>897532</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2307154650372019</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2186842167368101</v>
+        <v>0.2201765845586556</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2436213700293977</v>
+        <v>0.2439829677346028</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2005</v>
@@ -8469,19 +8469,19 @@
         <v>1620302</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1550146</v>
+        <v>1549782</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1695469</v>
+        <v>1693180</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.2268258596278766</v>
+        <v>0.2268258596278767</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2170047094560446</v>
+        <v>0.2169538025707195</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.237348535602502</v>
+        <v>0.2370281132633432</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>678986</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>632450</v>
+        <v>629576</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>728700</v>
+        <v>725936</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1959722214836358</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1825406711529662</v>
+        <v>0.1817112099922763</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.210320953196908</v>
+        <v>0.2095231091846413</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1566</v>
@@ -8519,19 +8519,19 @@
         <v>1022346</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>971868</v>
+        <v>974338</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1068162</v>
+        <v>1073043</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.2779121934375656</v>
+        <v>0.2779121934375655</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2641902165071078</v>
+        <v>0.2648616473428947</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2903666205984644</v>
+        <v>0.2916935642787426</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2308</v>
@@ -8540,19 +8540,19 @@
         <v>1701332</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1636008</v>
+        <v>1629565</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1768692</v>
+        <v>1770629</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2381693489459915</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2290245598280688</v>
+        <v>0.2281225886079704</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2475989981964251</v>
+        <v>0.2478701148447021</v>
       </c>
     </row>
     <row r="28">
